--- a/NEW HR/VELASCO, NUNILON.xlsx
+++ b/NEW HR/VELASCO, NUNILON.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>VELASCO, NUNILON</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>11/27-30/2022</t>
   </si>
 </sst>
 </file>
@@ -571,15 +580,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -592,11 +592,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,72 +621,19 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -715,6 +671,80 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -832,27 +862,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1293,7 +1302,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1345,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1409,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1469,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1535,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1598,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1696,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1755,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1820,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1863,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1938,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2124,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2190,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2248,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2314,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2370,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2445,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2488,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2554,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2610,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2708,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2771,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,15 +2877,15 @@
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
-      <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
+    <tableColumn id="7" name="EARNED " dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="13">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2888,13 +2897,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DAYS"/>
     <tableColumn id="2" name="HOURS"/>
     <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="6">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2903,14 +2912,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="3"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="2">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="1">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3239,9 +3248,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A65" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="4425" topLeftCell="A64" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,14 +3280,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3289,14 +3298,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3309,14 +3318,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3342,18 +3353,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3400,7 +3411,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3410,7 +3421,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4788,15 +4799,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -5701,17 +5716,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5747,9 +5762,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,14 +5795,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5801,17 +5816,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5825,17 +5840,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="50"/>
+        <v>ONT</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5861,18 +5876,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5923,19 +5938,21 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.168999999999997</v>
+        <v>43.168999999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="39"/>
@@ -5944,7 +5961,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H10" s="39"/>
@@ -5955,20 +5972,25 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H11" s="39"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="39">
+        <v>4</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
@@ -5977,10 +5999,7 @@
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G12" s="13"/>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
@@ -5993,10 +6012,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G13" s="13"/>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
@@ -6009,10 +6025,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G14" s="13"/>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
@@ -6025,10 +6038,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G15" s="13"/>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
@@ -6041,10 +6051,7 @@
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G16" s="42"/>
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
@@ -6057,10 +6064,7 @@
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G17" s="13"/>
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
@@ -6073,10 +6077,7 @@
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
@@ -6089,10 +6090,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G19" s="13"/>
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
@@ -6105,10 +6103,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G20" s="13"/>
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
@@ -6121,10 +6116,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G21" s="13"/>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
@@ -6137,10 +6129,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
@@ -6153,10 +6142,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G23" s="13"/>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
@@ -6169,10 +6155,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G24" s="13"/>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
@@ -6185,10 +6168,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G25" s="13"/>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
@@ -6201,10 +6181,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G26" s="13"/>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
@@ -6217,10 +6194,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G27" s="13"/>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
@@ -6233,10 +6207,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G28" s="13"/>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
@@ -6249,10 +6220,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G29" s="13"/>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
@@ -6265,10 +6233,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
@@ -6281,10 +6246,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
@@ -6297,10 +6259,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
@@ -6313,10 +6272,7 @@
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G33" s="13"/>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
@@ -6329,10 +6285,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G34" s="13"/>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
@@ -6345,10 +6298,7 @@
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G35" s="13"/>
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
@@ -6361,10 +6311,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G36" s="13"/>
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
@@ -6377,10 +6324,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G37" s="13"/>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
@@ -6393,10 +6337,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G38" s="13"/>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
@@ -6409,10 +6350,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
@@ -6425,10 +6363,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G40" s="13"/>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
@@ -6441,10 +6376,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G41" s="13"/>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
@@ -6457,10 +6389,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G42" s="13"/>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
@@ -6473,10 +6402,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G43" s="13"/>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
@@ -6489,10 +6415,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G44" s="13"/>
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
@@ -6505,10 +6428,7 @@
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G45" s="13"/>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
@@ -6521,10 +6441,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G46" s="13"/>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
@@ -6537,10 +6454,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G47" s="13"/>
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
@@ -6553,10 +6467,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G48" s="13"/>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
@@ -6569,10 +6480,7 @@
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G49" s="13"/>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
@@ -6585,10 +6493,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G50" s="13"/>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
@@ -6601,10 +6506,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G51" s="13"/>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
@@ -6617,10 +6519,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G52" s="13"/>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
@@ -6633,10 +6532,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G53" s="13"/>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
@@ -6649,10 +6545,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G54" s="13"/>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
@@ -6665,10 +6558,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G55" s="13"/>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
@@ -6681,10 +6571,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G56" s="13"/>
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
@@ -6697,10 +6584,7 @@
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G57" s="13"/>
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
@@ -6713,10 +6597,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G58" s="13"/>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
@@ -6729,10 +6610,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G59" s="13"/>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
@@ -6745,10 +6623,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G60" s="13"/>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
@@ -6761,10 +6636,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G61" s="13"/>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
@@ -6777,10 +6649,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G62" s="13"/>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
@@ -6793,10 +6662,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G63" s="13"/>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
@@ -6809,10 +6675,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G64" s="13"/>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
@@ -6825,10 +6688,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G65" s="13"/>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
@@ -6841,10 +6701,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G66" s="13"/>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
@@ -6857,10 +6714,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G67" s="13"/>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
@@ -6873,10 +6727,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G68" s="13"/>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
@@ -6889,10 +6740,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G69" s="13"/>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
@@ -6905,10 +6753,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G70" s="13"/>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
@@ -6921,10 +6766,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G71" s="13"/>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
@@ -6937,10 +6779,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G72" s="13"/>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
@@ -6953,10 +6792,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G73" s="13"/>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
@@ -6969,10 +6805,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G74" s="13"/>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
@@ -6985,10 +6818,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G75" s="13"/>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
@@ -7001,10 +6831,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G76" s="13"/>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
@@ -7017,10 +6844,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G77" s="13"/>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
@@ -7033,10 +6857,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G78" s="13"/>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
@@ -7049,10 +6870,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G79" s="13"/>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
@@ -7065,10 +6883,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G80" s="13"/>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
@@ -7081,10 +6896,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G81" s="13"/>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
@@ -7097,10 +6909,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G82" s="13"/>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
@@ -7113,10 +6922,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G83" s="13"/>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
@@ -7129,10 +6935,7 @@
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G84" s="13"/>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
@@ -7145,10 +6948,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G85" s="13"/>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
@@ -7161,10 +6961,7 @@
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G86" s="13"/>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
@@ -7177,10 +6974,7 @@
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G87" s="13"/>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
@@ -7193,10 +6987,7 @@
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G88" s="13"/>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
@@ -7209,10 +7000,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G89" s="13"/>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
@@ -7225,10 +7013,7 @@
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G90" s="13"/>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
@@ -7241,10 +7026,7 @@
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G91" s="13"/>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
@@ -7257,10 +7039,7 @@
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G92" s="13"/>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
@@ -7273,10 +7052,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G93" s="13"/>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
@@ -7289,10 +7065,7 @@
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G94" s="13"/>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
@@ -7305,10 +7078,7 @@
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G95" s="13"/>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
@@ -7321,10 +7091,7 @@
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G96" s="13"/>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
@@ -7337,10 +7104,7 @@
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G97" s="13"/>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
@@ -7353,10 +7117,7 @@
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G98" s="13"/>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
@@ -7369,10 +7130,7 @@
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G99" s="13"/>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
@@ -7385,10 +7143,7 @@
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G100" s="13"/>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
@@ -7401,10 +7156,7 @@
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G101" s="13"/>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
@@ -7417,10 +7169,7 @@
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G102" s="13"/>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
@@ -7433,10 +7182,7 @@
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G103" s="13"/>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
@@ -7449,10 +7195,7 @@
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G104" s="13"/>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
@@ -7465,10 +7208,7 @@
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G105" s="13"/>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
@@ -7481,10 +7221,7 @@
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G106" s="13"/>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
@@ -7497,10 +7234,7 @@
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G107" s="13"/>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
@@ -7513,10 +7247,7 @@
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G108" s="13"/>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
@@ -7529,10 +7260,7 @@
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G109" s="13"/>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
@@ -7545,10 +7273,7 @@
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G110" s="13"/>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
@@ -7561,10 +7286,7 @@
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G111" s="13"/>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
@@ -7577,10 +7299,7 @@
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G112" s="13"/>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
@@ -7593,10 +7312,7 @@
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G113" s="13"/>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
@@ -7609,10 +7325,7 @@
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G114" s="13"/>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
@@ -7625,10 +7338,7 @@
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G115" s="13"/>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
@@ -7641,10 +7351,7 @@
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G116" s="13"/>
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
@@ -7657,10 +7364,7 @@
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G117" s="13"/>
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
@@ -7673,10 +7377,7 @@
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G118" s="13"/>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
@@ -7689,10 +7390,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G119" s="13"/>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
@@ -7705,10 +7403,7 @@
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G120" s="13"/>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
@@ -7721,10 +7416,7 @@
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G121" s="13"/>
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
@@ -7737,10 +7429,7 @@
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G122" s="13"/>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
@@ -7753,10 +7442,7 @@
       <c r="D123" s="39"/>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G123" s="13"/>
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
@@ -7769,10 +7455,7 @@
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G124" s="13"/>
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
@@ -7785,10 +7468,7 @@
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G125" s="13"/>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
@@ -7801,10 +7481,7 @@
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G126" s="13"/>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
@@ -7818,7 +7495,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H127" s="39"/>
@@ -7834,7 +7511,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H128" s="39"/>
@@ -7850,7 +7527,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
       <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H129" s="39"/>
@@ -7866,7 +7543,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="15"/>
       <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H130" s="43"/>

--- a/NEW HR/VELASCO, NUNILON.xlsx
+++ b/NEW HR/VELASCO, NUNILON.xlsx
@@ -580,6 +580,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -592,20 +601,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,19 +621,72 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -671,80 +724,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -862,6 +841,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1302,7 +1302,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1345,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1469,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1696,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,7 +1755,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1820,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1863,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1938,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2124,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2190,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2248,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2314,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2370,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2445,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2488,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2554,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2708,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,15 +2877,15 @@
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="0">
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2897,13 +2897,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="DAYS"/>
     <tableColumn id="2" name="HOURS"/>
     <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="6">
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2912,14 +2912,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="3"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="2">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="1">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3248,9 +3248,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,14 +3280,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3298,14 +3298,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3318,16 +3318,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3353,18 +3353,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3411,7 +3411,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3421,7 +3421,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4821,13 +4821,15 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4837,13 +4839,15 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4853,13 +4857,15 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4869,13 +4875,15 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5716,17 +5724,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5795,14 +5803,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5816,17 +5824,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5840,17 +5848,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>ONT</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5876,18 +5884,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
